--- a/Entregables/UdeBarcelona/models_Var_XG.xlsx
+++ b/Entregables/UdeBarcelona/models_Var_XG.xlsx
@@ -482,27 +482,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1080890123109418</v>
+        <v>0.1080935324246813</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09409926144396508</v>
+        <v>-0.09409232324897121</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2021882737549069</v>
+        <v>0.2021858556736525</v>
       </c>
       <c r="E2" t="n">
-        <v>30.9770307604708</v>
+        <v>30.9769522661582</v>
       </c>
       <c r="F2" t="n">
-        <v>34.308947264803</v>
+        <v>34.30883848009217</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'solver': 'saga', 'alpha': 1000.0}</t>
+          <t>{'solver': 'sag', 'alpha': 1000.0}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6.61</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="3">
@@ -515,16 +515,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.07436544093275699</v>
+        <v>-0.07430980641874196</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07436544093275699</v>
+        <v>0.07430980641874196</v>
       </c>
       <c r="E3" t="n">
         <v>32.80039169122015</v>
       </c>
       <c r="F3" t="n">
-        <v>33.99813115301801</v>
+        <v>33.99725086874999</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.24</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4.73</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.54</v>
+        <v>0.58</v>
       </c>
     </row>
   </sheetData>

--- a/Entregables/UdeBarcelona/models_Var_XG.xlsx
+++ b/Entregables/UdeBarcelona/models_Var_XG.xlsx
@@ -482,27 +482,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1080935324246813</v>
+        <v>0.1080945746927301</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09409232324897121</v>
+        <v>-0.09408604021379063</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2021858556736525</v>
+        <v>0.2021806149065207</v>
       </c>
       <c r="E2" t="n">
-        <v>30.9769522661582</v>
+        <v>30.9769341665602</v>
       </c>
       <c r="F2" t="n">
-        <v>34.30883848009217</v>
+        <v>34.30873996740541</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'solver': 'sag', 'alpha': 1000.0}</t>
+          <t>{'solver': 'saga', 'alpha': 1000.0}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.36</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="3">
@@ -515,16 +515,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.07430980641874196</v>
+        <v>-0.07421678239518825</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07430980641874196</v>
+        <v>0.07421678239518825</v>
       </c>
       <c r="E3" t="n">
         <v>32.80039169122015</v>
       </c>
       <c r="F3" t="n">
-        <v>33.99725086874999</v>
+        <v>33.99577893322876</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.31</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.39</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.58</v>
+        <v>0.53</v>
       </c>
     </row>
   </sheetData>

--- a/Entregables/UdeBarcelona/models_Var_XG.xlsx
+++ b/Entregables/UdeBarcelona/models_Var_XG.xlsx
@@ -482,27 +482,27 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1080945746927301</v>
+        <v>0.1080886702147018</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09408604021379063</v>
+        <v>-0.09409481936255237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2021806149065207</v>
+        <v>0.2021834895772542</v>
       </c>
       <c r="E2" t="n">
-        <v>30.9769341665602</v>
+        <v>30.97703670115595</v>
       </c>
       <c r="F2" t="n">
-        <v>34.30873996740541</v>
+        <v>34.3088776169671</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'solver': 'saga', 'alpha': 1000.0}</t>
+          <t>{'solver': 'sag', 'alpha': 1000.0}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.28</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="3">
@@ -515,16 +515,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.07421678239518825</v>
+        <v>-0.07432319306829926</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07421678239518825</v>
+        <v>0.07432319306829926</v>
       </c>
       <c r="E3" t="n">
         <v>32.80039169122015</v>
       </c>
       <c r="F3" t="n">
-        <v>33.99577893322876</v>
+        <v>33.99746268282021</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2.97</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="5">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="6">
@@ -622,7 +622,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="7">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.3</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="8">
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
     </row>
   </sheetData>
